--- a/pred_ohlcv/54_21/2020-01-23 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BCH ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>-701.0651754999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-674.4820754999998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-675.6790840199999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-710.1953840199999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-700.9438559899999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-684.9829559899998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-699.0675559899998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-696.0675559899998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-647.6576559899999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-536.7673918199996</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-541.0581918199996</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-547.1106918199996</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-540.7000918199996</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-539.9798918199996</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-543.8064918199995</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-206.7779918199994</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-323.0095918199995</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-298.1668918199995</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-297.3215918199995</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-323.4288918199995</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-221.9179918199995</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-233.9496918199995</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-269.2813918199996</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-6.615791819999572</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-25.09979181999957</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-22.89859181999957</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>531.7943081800004</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>905.7085081800003</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>889.3208081800003</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>896.2625081800003</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1121.73580818</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1115.41680818</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1115.41680818</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1100.96490818</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1102.64730818</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1107.54630818</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1107.29270818</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1199.60510818</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1148.26690818</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1181.20175938</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1214.09895938</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1214.09895938</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1200.41315938</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1189.86395938</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1162.94775938</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1162.94775938</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1162.94775938</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1178.94775938</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1193.44725938</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1194.97525938</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1196.40855938</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1196.40855938</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1121.44525938</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1191.53885938</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1316.62725938</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1293.77838973</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1260.17418973</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1175.20388973</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1085.56598973</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1107.98238973</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3471.427637480001</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>3471.427637480001</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>3471.427637480001</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>3500.797237480001</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>3622.860237480001</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>3572.636337480001</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>3508.159481150001</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>3536.215981150001</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>3477.703681150002</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>3469.162581150002</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3341.492481150002</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3256.584081150002</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>3151.044681150002</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>3112.448581150002</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>3106.644381150002</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>3091.495774920002</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>3161.805074920002</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 BCH ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>-701.0651754999999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-674.4820754999998</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-675.6790840199999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-710.1953840199999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-700.9438559899999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-684.9829559899998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-699.0675559899998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-696.0675559899998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-647.6576559899999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-536.7673918199996</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-541.0581918199996</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-547.1106918199996</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-540.5146918199996</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-540.7000918199996</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-503.0171918199996</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-510.7414918199996</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-532.6985918199996</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-507.1935918199996</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-543.1645918199996</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-539.9798918199996</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-535.0040918199995</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-533.1711918199995</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-508.2896918199995</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-470.2089918199995</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-480.2018918199994</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-471.1719918199994</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-458.5221918199994</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-459.5261918199994</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-462.1202918199994</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-462.0348918199994</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-462.0348918199994</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-460.9940918199994</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-461.6181918199994</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-462.8235918199994</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-463.8770918199994</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-465.5502918199994</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-543.8064918199995</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-206.7779918199994</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-323.0095918199995</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-298.1668918199995</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-297.3215918199995</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-323.4288918199995</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-221.9179918199995</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-233.9496918199995</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-269.2813918199996</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-6.615791819999572</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>531.7943081800004</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>905.7085081800003</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>889.3208081800003</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>896.2625081800003</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>1121.73580818</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1115.41680818</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1115.41680818</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>1100.96490818</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>1102.64730818</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1107.54630818</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1107.29270818</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1199.60510818</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1148.26690818</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1181.20175938</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1214.09895938</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1214.09895938</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1200.41315938</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1189.86395938</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1162.94775938</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1162.94775938</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1162.94775938</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1178.94775938</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1193.44725938</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1194.97525938</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1196.40855938</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1196.40855938</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1121.44525938</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1191.53885938</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1316.62725938</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1293.77838973</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1260.17418973</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1175.20388973</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1085.56598973</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1107.98238973</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>3244.034530100001</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>3287.331230100001</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>3486.784030100001</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>3244.324110970001</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3471.427637480001</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>3471.427637480001</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>3471.427637480001</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>3500.797237480001</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>3622.860237480001</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>3572.636337480001</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>3508.159481150001</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>3536.215981150001</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>3477.703681150002</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>3469.162581150002</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>3341.492481150002</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>3256.584081150002</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>3151.044681150002</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>3112.448581150002</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>3133.123181150002</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>3043.545981150001</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>3037.992381150001</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>3049.132381150001</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>3106.644381150002</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>3077.412881150002</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>3193.353781150002</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>3193.353781150002</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>3112.528581150002</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>3050.636881150001</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
